--- a/molgenis-api-tests/src/test/resources/RestControllerV2_TestEMX.xlsx
+++ b/molgenis-api-tests/src/test/resources/RestControllerV2_TestEMX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fkelpin/git/molgenis/molgenis-api-tests/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8A5B4-178D-FB43-9B5F-F8A3D8ECBFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DCEF4F-4C0E-2849-90A7-45278F26EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40840" yWindow="-11620" windowWidth="24580" windowHeight="16540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
     <t>{driverslicence} notempty or {age} empty or {age} &lt; 18</t>
   </si>
   <si>
-    <t>{age} &gt;= 18</t>
+    <t>{age} notempty and {age} &gt;= 18</t>
   </si>
 </sst>
 </file>
